--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-476022.7658663082</v>
+        <v>-478828.280609751</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>316.2321005310486</v>
+        <v>307.0206072617027</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>63.94781139797163</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.854644334670076</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>137.8154619960439</v>
+        <v>124.6316617408101</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.39561864928997</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>235.4745188564437</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.7216435253437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>52.22655552888207</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,13 +1306,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>18.7341254156488</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>32.99324967854878</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022933</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>41.02686156550261</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>114.7205611007743</v>
       </c>
     </row>
     <row r="14">
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>141.5017810206662</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012319</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>80.56412890121354</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>9.570729811036321</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>102.1557845699818</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.78315874934748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.76895293959859</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>165.0963079021241</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>55.52079624060473</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>98.03921036659287</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>19.91555826189057</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>139.3687739767485</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652518</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808201</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.425425970681</v>
+        <v>1232.657775713426</v>
       </c>
       <c r="C2" t="n">
-        <v>951.4629090302697</v>
+        <v>863.6952587730148</v>
       </c>
       <c r="D2" t="n">
-        <v>593.1972104235191</v>
+        <v>863.6952587730148</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.851790143458</v>
+        <v>1542.779601230298</v>
       </c>
     </row>
     <row r="3">
@@ -4407,10 +4407,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>722.2152020502018</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>722.2152020502018</v>
       </c>
       <c r="S4" t="n">
-        <v>571.3497027553424</v>
+        <v>722.2152020502018</v>
       </c>
       <c r="T4" t="n">
-        <v>571.3497027553424</v>
+        <v>722.2152020502018</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>722.2152020502018</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>722.2152020502018</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>722.2152020502018</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>722.2152020502018</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>722.2152020502018</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1717.15289212512</v>
+        <v>709.2075429298498</v>
       </c>
       <c r="C5" t="n">
-        <v>1348.190375184708</v>
+        <v>340.245025989438</v>
       </c>
       <c r="D5" t="n">
-        <v>989.9246765779576</v>
+        <v>340.245025989438</v>
       </c>
       <c r="E5" t="n">
-        <v>604.1364239797133</v>
+        <v>340.245025989438</v>
       </c>
       <c r="F5" t="n">
-        <v>193.1505191901057</v>
+        <v>333.2995252402346</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.15289212512</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>1717.15289212512</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4659,28 +4659,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516.956448217093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406182</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.763590178429</v>
+        <v>1231.466214202299</v>
       </c>
       <c r="C8" t="n">
-        <v>1745.763590178429</v>
+        <v>1231.466214202299</v>
       </c>
       <c r="D8" t="n">
-        <v>1387.497891571678</v>
+        <v>873.2005155955489</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>487.4122629973047</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>186.6833301434222</v>
       </c>
       <c r="G8" t="n">
         <v>173.6359524202537</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2429.595132792113</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2098.532245448543</v>
+        <v>1995.071304439191</v>
       </c>
       <c r="W8" t="n">
-        <v>1745.763590178429</v>
+        <v>1995.071304439191</v>
       </c>
       <c r="X8" t="n">
-        <v>1745.763590178429</v>
+        <v>1621.605546178111</v>
       </c>
       <c r="Y8" t="n">
-        <v>1745.763590178429</v>
+        <v>1231.466214202299</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>592.9687148475971</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>578.4005959302922</v>
+        <v>372.6664662373168</v>
       </c>
       <c r="C10" t="n">
-        <v>409.4644130023853</v>
+        <v>372.6664662373168</v>
       </c>
       <c r="D10" t="n">
-        <v>259.3477735900495</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="E10" t="n">
-        <v>259.3477735900495</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="F10" t="n">
-        <v>259.3477735900495</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
-        <v>90.74092858543293</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="V10" t="n">
-        <v>799.1931750738223</v>
+        <v>890.0731871722949</v>
       </c>
       <c r="W10" t="n">
-        <v>799.1931750738223</v>
+        <v>600.6560171353342</v>
       </c>
       <c r="X10" t="n">
-        <v>799.1931750738223</v>
+        <v>372.6664662373168</v>
       </c>
       <c r="Y10" t="n">
-        <v>578.4005959302922</v>
+        <v>372.6664662373168</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5042,16 +5042,16 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939068</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622266</v>
+        <v>868.6673633290485</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343197</v>
+        <v>699.7311804011416</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2570777219839</v>
+        <v>549.6145409888059</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3439841395908</v>
+        <v>549.6145409888059</v>
       </c>
       <c r="F13" t="n">
-        <v>302.4540366416804</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>135.2579373565604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>135.2579373565604</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934014</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>1050.315828159288</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2298.539471851637</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2298.539471851637</v>
+        <v>2187.395141638036</v>
       </c>
       <c r="U19" t="n">
-        <v>2009.464245195835</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V19" t="n">
-        <v>1754.779756989948</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W19" t="n">
-        <v>1465.362586952987</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37303605497</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5838,16 +5838,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297717</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F22" t="n">
-        <v>197.0043242297717</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F28" t="n">
         <v>343.0994656851783</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101294</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>149.8982754122191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6698,7 +6698,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9333885650331</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>113.9333885650331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>113.9333885650331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>221.3431781811715</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>662.1522880254209</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>493.2161050975141</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1836.684541140056</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1582.000052934169</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1292.582882897208</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1064.593331999191</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.8007528556607</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384014</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,13 +7366,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
@@ -7552,28 +7552,28 @@
         <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,28 +7582,28 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380725</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>337.5639548971532</v>
       </c>
       <c r="M9" t="n">
-        <v>378.0407240669644</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10595,13 +10595,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-2.441475337020898e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.50174113243196</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>317.9825586742901</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>119.2651283725299</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>40.23897475306291</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>103.8640922513204</v>
       </c>
     </row>
     <row r="14">
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>25.74504007796168</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>100.4621571004311</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>207.8347205162519</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>63.36835372228705</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>98.55338150863676</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>145.8014946027473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>144.634190040853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>73.65209508333265</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.150513196503738</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>84.77391660561912</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>48.3947522799763</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>146.8157004124956</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1155063.456278358</v>
+        <v>1155063.456278357</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1155063.456278358</v>
+        <v>1155063.456278357</v>
       </c>
     </row>
     <row r="10">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758988</v>
+        <v>229059.6437758989</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="E2" t="n">
         <v>262322.6448992519</v>
@@ -26338,22 +26338,22 @@
         <v>262322.644899252</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26381,31 +26381,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080587</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363172</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.536993168992922e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682758</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682718</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682727</v>
+        <v>5677.53656668275</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977619</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977619</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977621</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-587342.1283177397</v>
+        <v>-587632.7354825858</v>
       </c>
       <c r="C6" t="n">
-        <v>-25942.91832055055</v>
+        <v>-25942.91832055061</v>
       </c>
       <c r="D6" t="n">
-        <v>-181746.7244143456</v>
+        <v>-181746.7244143455</v>
       </c>
       <c r="E6" t="n">
-        <v>-615530.1128721444</v>
+        <v>-615564.8507975801</v>
       </c>
       <c r="F6" t="n">
-        <v>155522.5785086624</v>
+        <v>155487.8405832266</v>
       </c>
       <c r="G6" t="n">
-        <v>155522.5785086621</v>
+        <v>155487.8405832265</v>
       </c>
       <c r="H6" t="n">
-        <v>155522.5785086619</v>
+        <v>155487.8405832264</v>
       </c>
       <c r="I6" t="n">
-        <v>155522.5785086621</v>
+        <v>155487.8405832264</v>
       </c>
       <c r="J6" t="n">
-        <v>-20900.64068393064</v>
+        <v>-20935.37860936654</v>
       </c>
       <c r="K6" t="n">
-        <v>155522.5785086619</v>
+        <v>155487.8405832264</v>
       </c>
       <c r="L6" t="n">
-        <v>155522.5785086623</v>
+        <v>155487.8405832264</v>
       </c>
       <c r="M6" t="n">
-        <v>31314.06780060344</v>
+        <v>31279.32987516795</v>
       </c>
       <c r="N6" t="n">
         <v>130578.3455285689</v>
@@ -26561,7 +26561,7 @@
         <v>150006.0635222007</v>
       </c>
       <c r="P6" t="n">
-        <v>150006.0635222005</v>
+        <v>150006.0635222007</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,13 +26984,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>75.71323440177787</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>55.15058443644163</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>23.26810562024423</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>56.93405031343801</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>275.9687080247511</v>
+        <v>289.1525082799848</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117.4363615326473</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,10 +27789,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>50.80735538553404</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>109.1544022163677</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>198.9282306934186</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>133.9779712535837</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28068,16 +28068,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>219.1443936452792</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>220.7280629601519</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,7 +32078,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>297.1808238847177</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,19 +32312,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>476.1797104685612</v>
       </c>
       <c r="M9" t="n">
-        <v>559.3511648291915</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>82.88662398579289</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
